--- a/stock_historical_data/1wk/MANINDS.NS.xlsx
+++ b/stock_historical_data/1wk/MANINDS.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R994"/>
+  <dimension ref="A1:R1029"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3715,7 +3715,7 @@
         <v>0</v>
       </c>
       <c r="Q58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R58" t="n">
         <v>0</v>
@@ -4107,7 +4107,7 @@
         <v>0</v>
       </c>
       <c r="Q65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R65" t="n">
         <v>0</v>
@@ -5115,7 +5115,7 @@
         <v>0</v>
       </c>
       <c r="Q83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R83" t="n">
         <v>0</v>
@@ -55901,7 +55901,7 @@
         <v>22</v>
       </c>
       <c r="O990" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P990" t="n">
         <v>0</v>
@@ -56077,7 +56077,9 @@
       <c r="Q993" t="n">
         <v>0</v>
       </c>
-      <c r="R993" t="inlineStr"/>
+      <c r="R993" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="994">
       <c r="A994" s="2" t="n">
@@ -56131,7 +56133,1829 @@
       <c r="Q994" t="n">
         <v>0</v>
       </c>
-      <c r="R994" t="inlineStr"/>
+      <c r="R994" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="995">
+      <c r="A995" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B995" t="n">
+        <v>414.9500122070312</v>
+      </c>
+      <c r="C995" t="n">
+        <v>486.2999877929688</v>
+      </c>
+      <c r="D995" t="n">
+        <v>408</v>
+      </c>
+      <c r="E995" t="n">
+        <v>463.8500061035156</v>
+      </c>
+      <c r="F995" t="inlineStr"/>
+      <c r="G995" t="n">
+        <v>5430186</v>
+      </c>
+      <c r="H995" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I995" t="n">
+        <v>7</v>
+      </c>
+      <c r="J995" t="n">
+        <v>1</v>
+      </c>
+      <c r="K995" t="n">
+        <v>0</v>
+      </c>
+      <c r="L995" t="n">
+        <v>0</v>
+      </c>
+      <c r="M995" t="n">
+        <v>0</v>
+      </c>
+      <c r="N995" t="n">
+        <v>27</v>
+      </c>
+      <c r="O995" t="n">
+        <v>0</v>
+      </c>
+      <c r="P995" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q995" t="n">
+        <v>0</v>
+      </c>
+      <c r="R995" t="inlineStr"/>
+    </row>
+    <row r="996">
+      <c r="A996" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B996" t="n">
+        <v>501</v>
+      </c>
+      <c r="C996" t="n">
+        <v>513.7000122070312</v>
+      </c>
+      <c r="D996" t="n">
+        <v>460.3500061035156</v>
+      </c>
+      <c r="E996" t="n">
+        <v>465.75</v>
+      </c>
+      <c r="F996" t="inlineStr"/>
+      <c r="G996" t="n">
+        <v>4515649</v>
+      </c>
+      <c r="H996" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I996" t="n">
+        <v>7</v>
+      </c>
+      <c r="J996" t="n">
+        <v>8</v>
+      </c>
+      <c r="K996" t="n">
+        <v>0</v>
+      </c>
+      <c r="L996" t="n">
+        <v>0</v>
+      </c>
+      <c r="M996" t="n">
+        <v>0</v>
+      </c>
+      <c r="N996" t="n">
+        <v>28</v>
+      </c>
+      <c r="O996" t="n">
+        <v>1</v>
+      </c>
+      <c r="P996" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q996" t="n">
+        <v>1</v>
+      </c>
+      <c r="R996" t="inlineStr"/>
+    </row>
+    <row r="997">
+      <c r="A997" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B997" t="n">
+        <v>465.75</v>
+      </c>
+      <c r="C997" t="n">
+        <v>497.9500122070312</v>
+      </c>
+      <c r="D997" t="n">
+        <v>447.1000061035156</v>
+      </c>
+      <c r="E997" t="n">
+        <v>450.0499877929688</v>
+      </c>
+      <c r="F997" t="inlineStr"/>
+      <c r="G997" t="n">
+        <v>2320585</v>
+      </c>
+      <c r="H997" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I997" t="n">
+        <v>7</v>
+      </c>
+      <c r="J997" t="n">
+        <v>15</v>
+      </c>
+      <c r="K997" t="n">
+        <v>0</v>
+      </c>
+      <c r="L997" t="n">
+        <v>0</v>
+      </c>
+      <c r="M997" t="n">
+        <v>0</v>
+      </c>
+      <c r="N997" t="n">
+        <v>29</v>
+      </c>
+      <c r="O997" t="n">
+        <v>0</v>
+      </c>
+      <c r="P997" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q997" t="n">
+        <v>0</v>
+      </c>
+      <c r="R997" t="inlineStr"/>
+    </row>
+    <row r="998">
+      <c r="A998" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B998" t="n">
+        <v>450.1000061035156</v>
+      </c>
+      <c r="C998" t="n">
+        <v>479.7000122070312</v>
+      </c>
+      <c r="D998" t="n">
+        <v>416.6000061035156</v>
+      </c>
+      <c r="E998" t="n">
+        <v>467.8500061035156</v>
+      </c>
+      <c r="F998" t="inlineStr"/>
+      <c r="G998" t="n">
+        <v>1477538</v>
+      </c>
+      <c r="H998" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I998" t="n">
+        <v>7</v>
+      </c>
+      <c r="J998" t="n">
+        <v>22</v>
+      </c>
+      <c r="K998" t="n">
+        <v>0</v>
+      </c>
+      <c r="L998" t="n">
+        <v>0</v>
+      </c>
+      <c r="M998" t="n">
+        <v>0</v>
+      </c>
+      <c r="N998" t="n">
+        <v>30</v>
+      </c>
+      <c r="O998" t="n">
+        <v>0</v>
+      </c>
+      <c r="P998" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q998" t="n">
+        <v>0</v>
+      </c>
+      <c r="R998" t="inlineStr"/>
+    </row>
+    <row r="999">
+      <c r="A999" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B999" t="n">
+        <v>471.9500122070312</v>
+      </c>
+      <c r="C999" t="n">
+        <v>484.3999938964844</v>
+      </c>
+      <c r="D999" t="n">
+        <v>440</v>
+      </c>
+      <c r="E999" t="n">
+        <v>442.25</v>
+      </c>
+      <c r="F999" t="inlineStr"/>
+      <c r="G999" t="n">
+        <v>1273526</v>
+      </c>
+      <c r="H999" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I999" t="n">
+        <v>7</v>
+      </c>
+      <c r="J999" t="n">
+        <v>29</v>
+      </c>
+      <c r="K999" t="n">
+        <v>0</v>
+      </c>
+      <c r="L999" t="n">
+        <v>0</v>
+      </c>
+      <c r="M999" t="n">
+        <v>0</v>
+      </c>
+      <c r="N999" t="n">
+        <v>31</v>
+      </c>
+      <c r="O999" t="n">
+        <v>0</v>
+      </c>
+      <c r="P999" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q999" t="n">
+        <v>0</v>
+      </c>
+      <c r="R999" t="inlineStr"/>
+    </row>
+    <row r="1000">
+      <c r="A1000" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B1000" t="n">
+        <v>426</v>
+      </c>
+      <c r="C1000" t="n">
+        <v>437.9500122070312</v>
+      </c>
+      <c r="D1000" t="n">
+        <v>400.6000061035156</v>
+      </c>
+      <c r="E1000" t="n">
+        <v>429.3500061035156</v>
+      </c>
+      <c r="F1000" t="inlineStr"/>
+      <c r="G1000" t="n">
+        <v>1181230</v>
+      </c>
+      <c r="H1000" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1000" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1000" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1000" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1000" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1000" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1000" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1000" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1000" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1000" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1000" t="inlineStr"/>
+    </row>
+    <row r="1001">
+      <c r="A1001" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B1001" t="n">
+        <v>429.3500061035156</v>
+      </c>
+      <c r="C1001" t="n">
+        <v>466</v>
+      </c>
+      <c r="D1001" t="n">
+        <v>425.25</v>
+      </c>
+      <c r="E1001" t="n">
+        <v>445.6499938964844</v>
+      </c>
+      <c r="F1001" t="inlineStr"/>
+      <c r="G1001" t="n">
+        <v>1406497</v>
+      </c>
+      <c r="H1001" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1001" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1001" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1001" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1001" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1001" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1001" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1001" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1001" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1001" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1001" t="inlineStr"/>
+    </row>
+    <row r="1002">
+      <c r="A1002" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B1002" t="n">
+        <v>446.8999938964844</v>
+      </c>
+      <c r="C1002" t="n">
+        <v>475</v>
+      </c>
+      <c r="D1002" t="n">
+        <v>437.3999938964844</v>
+      </c>
+      <c r="E1002" t="n">
+        <v>441.4500122070312</v>
+      </c>
+      <c r="F1002" t="inlineStr"/>
+      <c r="G1002" t="n">
+        <v>920101</v>
+      </c>
+      <c r="H1002" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1002" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1002" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1002" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1002" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1002" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1002" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1002" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1002" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1002" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1002" t="inlineStr"/>
+    </row>
+    <row r="1003">
+      <c r="A1003" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B1003" t="n">
+        <v>441.0499877929688</v>
+      </c>
+      <c r="C1003" t="n">
+        <v>445.6000061035156</v>
+      </c>
+      <c r="D1003" t="n">
+        <v>413.0499877929688</v>
+      </c>
+      <c r="E1003" t="n">
+        <v>415.7999877929688</v>
+      </c>
+      <c r="F1003" t="inlineStr"/>
+      <c r="G1003" t="n">
+        <v>874175</v>
+      </c>
+      <c r="H1003" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1003" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1003" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1003" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1003" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1003" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1003" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1003" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1003" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1003" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1003" t="inlineStr"/>
+    </row>
+    <row r="1004">
+      <c r="A1004" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B1004" t="n">
+        <v>420.0499877929688</v>
+      </c>
+      <c r="C1004" t="n">
+        <v>424.7000122070312</v>
+      </c>
+      <c r="D1004" t="n">
+        <v>390</v>
+      </c>
+      <c r="E1004" t="n">
+        <v>392.8999938964844</v>
+      </c>
+      <c r="F1004" t="inlineStr"/>
+      <c r="G1004" t="n">
+        <v>1275583</v>
+      </c>
+      <c r="H1004" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1004" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1004" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1004" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1004" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1004" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1004" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1004" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1004" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1004" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1004" t="inlineStr"/>
+    </row>
+    <row r="1005">
+      <c r="A1005" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B1005" t="n">
+        <v>393.0499877929688</v>
+      </c>
+      <c r="C1005" t="n">
+        <v>404</v>
+      </c>
+      <c r="D1005" t="n">
+        <v>384.1000061035156</v>
+      </c>
+      <c r="E1005" t="n">
+        <v>389.75</v>
+      </c>
+      <c r="F1005" t="inlineStr"/>
+      <c r="G1005" t="n">
+        <v>736066</v>
+      </c>
+      <c r="H1005" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1005" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1005" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1005" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1005" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1005" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1005" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1005" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1005" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1005" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1005" t="inlineStr"/>
+    </row>
+    <row r="1006">
+      <c r="A1006" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B1006" t="n">
+        <v>392.5499877929688</v>
+      </c>
+      <c r="C1006" t="n">
+        <v>396.7000122070312</v>
+      </c>
+      <c r="D1006" t="n">
+        <v>365.2999877929688</v>
+      </c>
+      <c r="E1006" t="n">
+        <v>381.6499938964844</v>
+      </c>
+      <c r="F1006" t="inlineStr"/>
+      <c r="G1006" t="n">
+        <v>889603</v>
+      </c>
+      <c r="H1006" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1006" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1006" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1006" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1006" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1006" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1006" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1006" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1006" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1006" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1006" t="inlineStr"/>
+    </row>
+    <row r="1007">
+      <c r="A1007" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B1007" t="n">
+        <v>382.0499877929688</v>
+      </c>
+      <c r="C1007" t="n">
+        <v>392.3999938964844</v>
+      </c>
+      <c r="D1007" t="n">
+        <v>350</v>
+      </c>
+      <c r="E1007" t="n">
+        <v>354.8999938964844</v>
+      </c>
+      <c r="F1007" t="inlineStr"/>
+      <c r="G1007" t="n">
+        <v>1668664</v>
+      </c>
+      <c r="H1007" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1007" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1007" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1007" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1007" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1007" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1007" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1007" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1007" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1007" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1007" t="inlineStr"/>
+    </row>
+    <row r="1008">
+      <c r="A1008" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B1008" t="n">
+        <v>358</v>
+      </c>
+      <c r="C1008" t="n">
+        <v>361.6000061035156</v>
+      </c>
+      <c r="D1008" t="n">
+        <v>332</v>
+      </c>
+      <c r="E1008" t="n">
+        <v>336.5499877929688</v>
+      </c>
+      <c r="F1008" t="inlineStr"/>
+      <c r="G1008" t="n">
+        <v>1491911</v>
+      </c>
+      <c r="H1008" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1008" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1008" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1008" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1008" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1008" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1008" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1008" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1008" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1008" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1008" t="inlineStr"/>
+    </row>
+    <row r="1009">
+      <c r="A1009" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B1009" t="n">
+        <v>342.9500122070312</v>
+      </c>
+      <c r="C1009" t="n">
+        <v>363.75</v>
+      </c>
+      <c r="D1009" t="n">
+        <v>313.7999877929688</v>
+      </c>
+      <c r="E1009" t="n">
+        <v>352.0499877929688</v>
+      </c>
+      <c r="F1009" t="inlineStr"/>
+      <c r="G1009" t="n">
+        <v>1296059</v>
+      </c>
+      <c r="H1009" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1009" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1009" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1009" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1009" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1009" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1009" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1009" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1009" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1009" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1009" t="inlineStr"/>
+    </row>
+    <row r="1010">
+      <c r="A1010" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B1010" t="n">
+        <v>353.1000061035156</v>
+      </c>
+      <c r="C1010" t="n">
+        <v>355.8500061035156</v>
+      </c>
+      <c r="D1010" t="n">
+        <v>306.1000061035156</v>
+      </c>
+      <c r="E1010" t="n">
+        <v>325.2000122070312</v>
+      </c>
+      <c r="F1010" t="inlineStr"/>
+      <c r="G1010" t="n">
+        <v>1886805</v>
+      </c>
+      <c r="H1010" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1010" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1010" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1010" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1010" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1010" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1010" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1010" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1010" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1010" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1010" t="inlineStr"/>
+    </row>
+    <row r="1011">
+      <c r="A1011" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B1011" t="n">
+        <v>329</v>
+      </c>
+      <c r="C1011" t="n">
+        <v>329.75</v>
+      </c>
+      <c r="D1011" t="n">
+        <v>281.0499877929688</v>
+      </c>
+      <c r="E1011" t="n">
+        <v>290.25</v>
+      </c>
+      <c r="F1011" t="inlineStr"/>
+      <c r="G1011" t="n">
+        <v>1843312</v>
+      </c>
+      <c r="H1011" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1011" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1011" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1011" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1011" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1011" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1011" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1011" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1011" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1011" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1011" t="inlineStr"/>
+    </row>
+    <row r="1012">
+      <c r="A1012" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B1012" t="n">
+        <v>294.6000061035156</v>
+      </c>
+      <c r="C1012" t="n">
+        <v>330</v>
+      </c>
+      <c r="D1012" t="n">
+        <v>287.3999938964844</v>
+      </c>
+      <c r="E1012" t="n">
+        <v>327.9500122070312</v>
+      </c>
+      <c r="F1012" t="inlineStr"/>
+      <c r="G1012" t="n">
+        <v>1027622</v>
+      </c>
+      <c r="H1012" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1012" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1012" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1012" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1012" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1012" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1012" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1012" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1012" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1012" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1012" t="inlineStr"/>
+    </row>
+    <row r="1013">
+      <c r="A1013" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B1013" t="n">
+        <v>333.3999938964844</v>
+      </c>
+      <c r="C1013" t="n">
+        <v>334.7999877929688</v>
+      </c>
+      <c r="D1013" t="n">
+        <v>306.3500061035156</v>
+      </c>
+      <c r="E1013" t="n">
+        <v>312.7000122070312</v>
+      </c>
+      <c r="F1013" t="inlineStr"/>
+      <c r="G1013" t="n">
+        <v>1093640</v>
+      </c>
+      <c r="H1013" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1013" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1013" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1013" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1013" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1013" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1013" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1013" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1013" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1013" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1013" t="inlineStr"/>
+    </row>
+    <row r="1014">
+      <c r="A1014" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B1014" t="n">
+        <v>311</v>
+      </c>
+      <c r="C1014" t="n">
+        <v>320.6499938964844</v>
+      </c>
+      <c r="D1014" t="n">
+        <v>286.75</v>
+      </c>
+      <c r="E1014" t="n">
+        <v>295.2000122070312</v>
+      </c>
+      <c r="F1014" t="inlineStr"/>
+      <c r="G1014" t="n">
+        <v>1087316</v>
+      </c>
+      <c r="H1014" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1014" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1014" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1014" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1014" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1014" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1014" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1014" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1014" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1014" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1014" t="inlineStr"/>
+    </row>
+    <row r="1015">
+      <c r="A1015" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B1015" t="n">
+        <v>298</v>
+      </c>
+      <c r="C1015" t="n">
+        <v>311</v>
+      </c>
+      <c r="D1015" t="n">
+        <v>285.1499938964844</v>
+      </c>
+      <c r="E1015" t="n">
+        <v>297.6499938964844</v>
+      </c>
+      <c r="F1015" t="inlineStr"/>
+      <c r="G1015" t="n">
+        <v>870953</v>
+      </c>
+      <c r="H1015" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1015" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1015" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1015" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1015" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1015" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1015" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1015" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1015" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1015" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1015" t="inlineStr"/>
+    </row>
+    <row r="1016">
+      <c r="A1016" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B1016" t="n">
+        <v>305</v>
+      </c>
+      <c r="C1016" t="n">
+        <v>321.25</v>
+      </c>
+      <c r="D1016" t="n">
+        <v>296.1000061035156</v>
+      </c>
+      <c r="E1016" t="n">
+        <v>311.7999877929688</v>
+      </c>
+      <c r="F1016" t="inlineStr"/>
+      <c r="G1016" t="n">
+        <v>1048864</v>
+      </c>
+      <c r="H1016" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1016" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1016" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1016" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1016" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1016" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1016" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1016" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1016" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1016" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1016" t="inlineStr"/>
+    </row>
+    <row r="1017">
+      <c r="A1017" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B1017" t="n">
+        <v>311</v>
+      </c>
+      <c r="C1017" t="n">
+        <v>369.7000122070312</v>
+      </c>
+      <c r="D1017" t="n">
+        <v>309</v>
+      </c>
+      <c r="E1017" t="n">
+        <v>366.0499877929688</v>
+      </c>
+      <c r="F1017" t="inlineStr"/>
+      <c r="G1017" t="n">
+        <v>2474992</v>
+      </c>
+      <c r="H1017" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1017" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1017" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1017" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1017" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1017" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1017" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1017" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1017" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1017" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1017" t="inlineStr"/>
+    </row>
+    <row r="1018">
+      <c r="A1018" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B1018" t="n">
+        <v>366.0499877929688</v>
+      </c>
+      <c r="C1018" t="n">
+        <v>379.4500122070312</v>
+      </c>
+      <c r="D1018" t="n">
+        <v>355.2999877929688</v>
+      </c>
+      <c r="E1018" t="n">
+        <v>362.2000122070312</v>
+      </c>
+      <c r="F1018" t="inlineStr"/>
+      <c r="G1018" t="n">
+        <v>1679424</v>
+      </c>
+      <c r="H1018" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1018" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1018" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1018" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1018" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1018" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1018" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1018" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1018" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1018" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1018" t="inlineStr"/>
+    </row>
+    <row r="1019">
+      <c r="A1019" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B1019" t="n">
+        <v>360</v>
+      </c>
+      <c r="C1019" t="n">
+        <v>367.7000122070312</v>
+      </c>
+      <c r="D1019" t="n">
+        <v>324</v>
+      </c>
+      <c r="E1019" t="n">
+        <v>326.3500061035156</v>
+      </c>
+      <c r="F1019" t="inlineStr"/>
+      <c r="G1019" t="n">
+        <v>1187785</v>
+      </c>
+      <c r="H1019" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1019" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1019" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1019" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1019" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1019" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1019" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1019" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1019" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1019" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1019" t="inlineStr"/>
+    </row>
+    <row r="1020">
+      <c r="A1020" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B1020" t="n">
+        <v>330</v>
+      </c>
+      <c r="C1020" t="n">
+        <v>332.6000061035156</v>
+      </c>
+      <c r="D1020" t="n">
+        <v>321.2000122070312</v>
+      </c>
+      <c r="E1020" t="n">
+        <v>324.5</v>
+      </c>
+      <c r="F1020" t="inlineStr"/>
+      <c r="G1020" t="n">
+        <v>633266</v>
+      </c>
+      <c r="H1020" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1020" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1020" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1020" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1020" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1020" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1020" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1020" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1020" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1020" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1020" t="inlineStr"/>
+    </row>
+    <row r="1021">
+      <c r="A1021" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B1021" t="n">
+        <v>325.4500122070312</v>
+      </c>
+      <c r="C1021" t="n">
+        <v>334.7000122070312</v>
+      </c>
+      <c r="D1021" t="n">
+        <v>312.5499877929688</v>
+      </c>
+      <c r="E1021" t="n">
+        <v>330</v>
+      </c>
+      <c r="F1021" t="inlineStr"/>
+      <c r="G1021" t="n">
+        <v>891246</v>
+      </c>
+      <c r="H1021" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1021" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1021" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1021" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1021" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1021" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1021" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1021" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1021" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1021" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1021" t="inlineStr"/>
+    </row>
+    <row r="1022">
+      <c r="A1022" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B1022" t="n">
+        <v>331.9500122070312</v>
+      </c>
+      <c r="C1022" t="n">
+        <v>355</v>
+      </c>
+      <c r="D1022" t="n">
+        <v>316</v>
+      </c>
+      <c r="E1022" t="n">
+        <v>331.7999877929688</v>
+      </c>
+      <c r="F1022" t="inlineStr"/>
+      <c r="G1022" t="n">
+        <v>2305979</v>
+      </c>
+      <c r="H1022" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1022" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1022" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1022" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1022" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1022" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1022" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1022" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1022" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1022" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1022" t="inlineStr"/>
+    </row>
+    <row r="1023">
+      <c r="A1023" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B1023" t="n">
+        <v>324.1000061035156</v>
+      </c>
+      <c r="C1023" t="n">
+        <v>330.8999938964844</v>
+      </c>
+      <c r="D1023" t="n">
+        <v>306.1000061035156</v>
+      </c>
+      <c r="E1023" t="n">
+        <v>320.5</v>
+      </c>
+      <c r="F1023" t="inlineStr"/>
+      <c r="G1023" t="n">
+        <v>1097091</v>
+      </c>
+      <c r="H1023" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1023" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1023" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1023" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1023" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1023" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1023" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1023" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1023" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1023" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1023" t="inlineStr"/>
+    </row>
+    <row r="1024">
+      <c r="A1024" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B1024" t="n">
+        <v>322</v>
+      </c>
+      <c r="C1024" t="n">
+        <v>326.75</v>
+      </c>
+      <c r="D1024" t="n">
+        <v>292</v>
+      </c>
+      <c r="E1024" t="n">
+        <v>293.6499938964844</v>
+      </c>
+      <c r="F1024" t="inlineStr"/>
+      <c r="G1024" t="n">
+        <v>741047</v>
+      </c>
+      <c r="H1024" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1024" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1024" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1024" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1024" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1024" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1024" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1024" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1024" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1024" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1024" t="inlineStr"/>
+    </row>
+    <row r="1025">
+      <c r="A1025" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B1025" t="n">
+        <v>290.0499877929688</v>
+      </c>
+      <c r="C1025" t="n">
+        <v>293.6499938964844</v>
+      </c>
+      <c r="D1025" t="n">
+        <v>257.1000061035156</v>
+      </c>
+      <c r="E1025" t="n">
+        <v>290.8999938964844</v>
+      </c>
+      <c r="F1025" t="inlineStr"/>
+      <c r="G1025" t="n">
+        <v>1054305</v>
+      </c>
+      <c r="H1025" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1025" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1025" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1025" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1025" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1025" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1025" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1025" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1025" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1025" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1025" t="inlineStr"/>
+    </row>
+    <row r="1026">
+      <c r="A1026" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B1026" t="n">
+        <v>285.25</v>
+      </c>
+      <c r="C1026" t="n">
+        <v>292.4500122070312</v>
+      </c>
+      <c r="D1026" t="n">
+        <v>269.9500122070312</v>
+      </c>
+      <c r="E1026" t="n">
+        <v>284.75</v>
+      </c>
+      <c r="F1026" t="inlineStr"/>
+      <c r="G1026" t="n">
+        <v>573748</v>
+      </c>
+      <c r="H1026" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1026" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1026" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1026" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1026" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1026" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1026" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1026" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1026" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1026" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1026" t="inlineStr"/>
+    </row>
+    <row r="1027">
+      <c r="A1027" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B1027" t="n">
+        <v>284.75</v>
+      </c>
+      <c r="C1027" t="n">
+        <v>286</v>
+      </c>
+      <c r="D1027" t="n">
+        <v>251.1000061035156</v>
+      </c>
+      <c r="E1027" t="n">
+        <v>255.8000030517578</v>
+      </c>
+      <c r="F1027" t="inlineStr"/>
+      <c r="G1027" t="n">
+        <v>1391060</v>
+      </c>
+      <c r="H1027" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1027" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1027" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1027" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1027" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1027" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1027" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1027" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1027" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1027" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1027" t="inlineStr"/>
+    </row>
+    <row r="1028">
+      <c r="A1028" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B1028" t="n">
+        <v>259.8999938964844</v>
+      </c>
+      <c r="C1028" t="n">
+        <v>259.8999938964844</v>
+      </c>
+      <c r="D1028" t="n">
+        <v>236.5500030517578</v>
+      </c>
+      <c r="E1028" t="n">
+        <v>242.3000030517578</v>
+      </c>
+      <c r="F1028" t="inlineStr"/>
+      <c r="G1028" t="n">
+        <v>1465502</v>
+      </c>
+      <c r="H1028" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1028" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1028" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1028" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1028" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1028" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1028" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1028" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1028" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1028" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1028" t="inlineStr"/>
+    </row>
+    <row r="1029">
+      <c r="A1029" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B1029" t="n">
+        <v>238</v>
+      </c>
+      <c r="C1029" t="n">
+        <v>244.25</v>
+      </c>
+      <c r="D1029" t="n">
+        <v>210</v>
+      </c>
+      <c r="E1029" t="n">
+        <v>213.25</v>
+      </c>
+      <c r="F1029" t="inlineStr"/>
+      <c r="G1029" t="n">
+        <v>1144438</v>
+      </c>
+      <c r="H1029" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1029" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1029" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1029" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1029" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1029" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1029" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1029" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1029" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1029" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1029" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/MANINDS.NS.xlsx
+++ b/stock_historical_data/1wk/MANINDS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1029"/>
+  <dimension ref="A1:R1038"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5563,7 +5563,7 @@
         <v>0</v>
       </c>
       <c r="Q91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R91" t="n">
         <v>0</v>
@@ -56187,7 +56187,9 @@
       <c r="Q995" t="n">
         <v>0</v>
       </c>
-      <c r="R995" t="inlineStr"/>
+      <c r="R995" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="996">
       <c r="A996" s="2" t="n">
@@ -56239,7 +56241,9 @@
       <c r="Q996" t="n">
         <v>1</v>
       </c>
-      <c r="R996" t="inlineStr"/>
+      <c r="R996" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="997">
       <c r="A997" s="2" t="n">
@@ -56291,7 +56295,9 @@
       <c r="Q997" t="n">
         <v>0</v>
       </c>
-      <c r="R997" t="inlineStr"/>
+      <c r="R997" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="998">
       <c r="A998" s="2" t="n">
@@ -56343,7 +56349,9 @@
       <c r="Q998" t="n">
         <v>0</v>
       </c>
-      <c r="R998" t="inlineStr"/>
+      <c r="R998" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="999">
       <c r="A999" s="2" t="n">
@@ -56395,7 +56403,9 @@
       <c r="Q999" t="n">
         <v>0</v>
       </c>
-      <c r="R999" t="inlineStr"/>
+      <c r="R999" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1000">
       <c r="A1000" s="2" t="n">
@@ -56447,7 +56457,9 @@
       <c r="Q1000" t="n">
         <v>0</v>
       </c>
-      <c r="R1000" t="inlineStr"/>
+      <c r="R1000" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1001">
       <c r="A1001" s="2" t="n">
@@ -56499,7 +56511,9 @@
       <c r="Q1001" t="n">
         <v>0</v>
       </c>
-      <c r="R1001" t="inlineStr"/>
+      <c r="R1001" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1002">
       <c r="A1002" s="2" t="n">
@@ -56551,7 +56565,9 @@
       <c r="Q1002" t="n">
         <v>2</v>
       </c>
-      <c r="R1002" t="inlineStr"/>
+      <c r="R1002" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1003">
       <c r="A1003" s="2" t="n">
@@ -56603,7 +56619,9 @@
       <c r="Q1003" t="n">
         <v>0</v>
       </c>
-      <c r="R1003" t="inlineStr"/>
+      <c r="R1003" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1004">
       <c r="A1004" s="2" t="n">
@@ -56655,7 +56673,9 @@
       <c r="Q1004" t="n">
         <v>0</v>
       </c>
-      <c r="R1004" t="inlineStr"/>
+      <c r="R1004" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1005">
       <c r="A1005" s="2" t="n">
@@ -56707,7 +56727,9 @@
       <c r="Q1005" t="n">
         <v>0</v>
       </c>
-      <c r="R1005" t="inlineStr"/>
+      <c r="R1005" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1006">
       <c r="A1006" s="2" t="n">
@@ -56759,7 +56781,9 @@
       <c r="Q1006" t="n">
         <v>0</v>
       </c>
-      <c r="R1006" t="inlineStr"/>
+      <c r="R1006" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1007">
       <c r="A1007" s="2" t="n">
@@ -56811,7 +56835,9 @@
       <c r="Q1007" t="n">
         <v>0</v>
       </c>
-      <c r="R1007" t="inlineStr"/>
+      <c r="R1007" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1008">
       <c r="A1008" s="2" t="n">
@@ -56863,7 +56889,9 @@
       <c r="Q1008" t="n">
         <v>0</v>
       </c>
-      <c r="R1008" t="inlineStr"/>
+      <c r="R1008" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1009">
       <c r="A1009" s="2" t="n">
@@ -56915,7 +56943,9 @@
       <c r="Q1009" t="n">
         <v>0</v>
       </c>
-      <c r="R1009" t="inlineStr"/>
+      <c r="R1009" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1010">
       <c r="A1010" s="2" t="n">
@@ -56967,7 +56997,9 @@
       <c r="Q1010" t="n">
         <v>0</v>
       </c>
-      <c r="R1010" t="inlineStr"/>
+      <c r="R1010" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1011">
       <c r="A1011" s="2" t="n">
@@ -57019,7 +57051,9 @@
       <c r="Q1011" t="n">
         <v>0</v>
       </c>
-      <c r="R1011" t="inlineStr"/>
+      <c r="R1011" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1012">
       <c r="A1012" s="2" t="n">
@@ -57071,7 +57105,9 @@
       <c r="Q1012" t="n">
         <v>0</v>
       </c>
-      <c r="R1012" t="inlineStr"/>
+      <c r="R1012" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1013">
       <c r="A1013" s="2" t="n">
@@ -57123,7 +57159,9 @@
       <c r="Q1013" t="n">
         <v>0</v>
       </c>
-      <c r="R1013" t="inlineStr"/>
+      <c r="R1013" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1014">
       <c r="A1014" s="2" t="n">
@@ -57175,7 +57213,9 @@
       <c r="Q1014" t="n">
         <v>0</v>
       </c>
-      <c r="R1014" t="inlineStr"/>
+      <c r="R1014" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1015">
       <c r="A1015" s="2" t="n">
@@ -57227,7 +57267,9 @@
       <c r="Q1015" t="n">
         <v>0</v>
       </c>
-      <c r="R1015" t="inlineStr"/>
+      <c r="R1015" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1016">
       <c r="A1016" s="2" t="n">
@@ -57279,7 +57321,9 @@
       <c r="Q1016" t="n">
         <v>0</v>
       </c>
-      <c r="R1016" t="inlineStr"/>
+      <c r="R1016" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1017">
       <c r="A1017" s="2" t="n">
@@ -57331,7 +57375,9 @@
       <c r="Q1017" t="n">
         <v>1</v>
       </c>
-      <c r="R1017" t="inlineStr"/>
+      <c r="R1017" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1018">
       <c r="A1018" s="2" t="n">
@@ -57383,7 +57429,9 @@
       <c r="Q1018" t="n">
         <v>0</v>
       </c>
-      <c r="R1018" t="inlineStr"/>
+      <c r="R1018" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1019">
       <c r="A1019" s="2" t="n">
@@ -57435,7 +57483,9 @@
       <c r="Q1019" t="n">
         <v>0</v>
       </c>
-      <c r="R1019" t="inlineStr"/>
+      <c r="R1019" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1020">
       <c r="A1020" s="2" t="n">
@@ -57487,7 +57537,9 @@
       <c r="Q1020" t="n">
         <v>0</v>
       </c>
-      <c r="R1020" t="inlineStr"/>
+      <c r="R1020" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1021">
       <c r="A1021" s="2" t="n">
@@ -57539,7 +57591,9 @@
       <c r="Q1021" t="n">
         <v>0</v>
       </c>
-      <c r="R1021" t="inlineStr"/>
+      <c r="R1021" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1022">
       <c r="A1022" s="2" t="n">
@@ -57591,7 +57645,9 @@
       <c r="Q1022" t="n">
         <v>0</v>
       </c>
-      <c r="R1022" t="inlineStr"/>
+      <c r="R1022" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1023">
       <c r="A1023" s="2" t="n">
@@ -57643,7 +57699,9 @@
       <c r="Q1023" t="n">
         <v>0</v>
       </c>
-      <c r="R1023" t="inlineStr"/>
+      <c r="R1023" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1024">
       <c r="A1024" s="2" t="n">
@@ -57695,7 +57753,9 @@
       <c r="Q1024" t="n">
         <v>2</v>
       </c>
-      <c r="R1024" t="inlineStr"/>
+      <c r="R1024" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1025">
       <c r="A1025" s="2" t="n">
@@ -57747,7 +57807,9 @@
       <c r="Q1025" t="n">
         <v>0</v>
       </c>
-      <c r="R1025" t="inlineStr"/>
+      <c r="R1025" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1026">
       <c r="A1026" s="2" t="n">
@@ -57799,7 +57861,9 @@
       <c r="Q1026" t="n">
         <v>0</v>
       </c>
-      <c r="R1026" t="inlineStr"/>
+      <c r="R1026" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1027">
       <c r="A1027" s="2" t="n">
@@ -57851,7 +57915,9 @@
       <c r="Q1027" t="n">
         <v>0</v>
       </c>
-      <c r="R1027" t="inlineStr"/>
+      <c r="R1027" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1028">
       <c r="A1028" s="2" t="n">
@@ -57903,7 +57969,9 @@
       <c r="Q1028" t="n">
         <v>0</v>
       </c>
-      <c r="R1028" t="inlineStr"/>
+      <c r="R1028" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1029">
       <c r="A1029" s="2" t="n">
@@ -57955,7 +58023,477 @@
       <c r="Q1029" t="n">
         <v>0</v>
       </c>
-      <c r="R1029" t="inlineStr"/>
+      <c r="R1029" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1030">
+      <c r="A1030" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B1030" t="n">
+        <v>214.3600006103516</v>
+      </c>
+      <c r="C1030" t="n">
+        <v>281.7000122070312</v>
+      </c>
+      <c r="D1030" t="n">
+        <v>201.5500030517578</v>
+      </c>
+      <c r="E1030" t="n">
+        <v>266.2200012207031</v>
+      </c>
+      <c r="F1030" t="inlineStr"/>
+      <c r="G1030" t="n">
+        <v>5693468</v>
+      </c>
+      <c r="H1030" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1030" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1030" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1030" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1030" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1030" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1030" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1030" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1030" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1030" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1030" t="inlineStr"/>
+    </row>
+    <row r="1031">
+      <c r="A1031" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B1031" t="n">
+        <v>270</v>
+      </c>
+      <c r="C1031" t="n">
+        <v>277.6000061035156</v>
+      </c>
+      <c r="D1031" t="n">
+        <v>246</v>
+      </c>
+      <c r="E1031" t="n">
+        <v>252.4199981689453</v>
+      </c>
+      <c r="F1031" t="inlineStr"/>
+      <c r="G1031" t="n">
+        <v>3483196</v>
+      </c>
+      <c r="H1031" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1031" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1031" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1031" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1031" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1031" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1031" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1031" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1031" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1031" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1031" t="inlineStr"/>
+    </row>
+    <row r="1032">
+      <c r="A1032" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B1032" t="n">
+        <v>253.6499938964844</v>
+      </c>
+      <c r="C1032" t="n">
+        <v>276.8200073242188</v>
+      </c>
+      <c r="D1032" t="n">
+        <v>249.8000030517578</v>
+      </c>
+      <c r="E1032" t="n">
+        <v>267.3599853515625</v>
+      </c>
+      <c r="F1032" t="inlineStr"/>
+      <c r="G1032" t="n">
+        <v>1842595</v>
+      </c>
+      <c r="H1032" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1032" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1032" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1032" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1032" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1032" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1032" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1032" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1032" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1032" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1032" t="inlineStr"/>
+    </row>
+    <row r="1033">
+      <c r="A1033" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B1033" t="n">
+        <v>269.7000122070312</v>
+      </c>
+      <c r="C1033" t="n">
+        <v>282.8999938964844</v>
+      </c>
+      <c r="D1033" t="n">
+        <v>255.5</v>
+      </c>
+      <c r="E1033" t="n">
+        <v>266.6099853515625</v>
+      </c>
+      <c r="F1033" t="inlineStr"/>
+      <c r="G1033" t="n">
+        <v>2924194</v>
+      </c>
+      <c r="H1033" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1033" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1033" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1033" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1033" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1033" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1033" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1033" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1033" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1033" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1033" t="inlineStr"/>
+    </row>
+    <row r="1034">
+      <c r="A1034" s="2" t="n">
+        <v>45747</v>
+      </c>
+      <c r="B1034" t="n">
+        <v>266.6099853515625</v>
+      </c>
+      <c r="C1034" t="n">
+        <v>300.9500122070312</v>
+      </c>
+      <c r="D1034" t="n">
+        <v>266.6099853515625</v>
+      </c>
+      <c r="E1034" t="n">
+        <v>277.25</v>
+      </c>
+      <c r="F1034" t="inlineStr"/>
+      <c r="G1034" t="n">
+        <v>3557455</v>
+      </c>
+      <c r="H1034" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1034" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1034" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1034" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1034" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1034" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1034" t="n">
+        <v>14</v>
+      </c>
+      <c r="O1034" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1034" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1034" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1034" t="inlineStr"/>
+    </row>
+    <row r="1035">
+      <c r="A1035" s="2" t="n">
+        <v>45754</v>
+      </c>
+      <c r="B1035" t="n">
+        <v>239.0500030517578</v>
+      </c>
+      <c r="C1035" t="n">
+        <v>273.4500122070312</v>
+      </c>
+      <c r="D1035" t="n">
+        <v>239.0500030517578</v>
+      </c>
+      <c r="E1035" t="n">
+        <v>270.1499938964844</v>
+      </c>
+      <c r="F1035" t="inlineStr"/>
+      <c r="G1035" t="n">
+        <v>1246622</v>
+      </c>
+      <c r="H1035" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1035" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1035" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1035" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1035" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1035" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1035" t="n">
+        <v>15</v>
+      </c>
+      <c r="O1035" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1035" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1035" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1035" t="inlineStr"/>
+    </row>
+    <row r="1036">
+      <c r="A1036" s="2" t="n">
+        <v>45761</v>
+      </c>
+      <c r="B1036" t="n">
+        <v>270.1499938964844</v>
+      </c>
+      <c r="C1036" t="n">
+        <v>298.9500122070312</v>
+      </c>
+      <c r="D1036" t="n">
+        <v>270.1499938964844</v>
+      </c>
+      <c r="E1036" t="n">
+        <v>291.3999938964844</v>
+      </c>
+      <c r="F1036" t="inlineStr"/>
+      <c r="G1036" t="n">
+        <v>864016</v>
+      </c>
+      <c r="H1036" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1036" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1036" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1036" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1036" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1036" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1036" t="n">
+        <v>16</v>
+      </c>
+      <c r="O1036" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1036" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1036" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1036" t="inlineStr"/>
+    </row>
+    <row r="1037">
+      <c r="A1037" s="2" t="n">
+        <v>45768</v>
+      </c>
+      <c r="B1037" t="n">
+        <v>294.7999877929688</v>
+      </c>
+      <c r="C1037" t="n">
+        <v>301</v>
+      </c>
+      <c r="D1037" t="n">
+        <v>263.7000122070312</v>
+      </c>
+      <c r="E1037" t="n">
+        <v>273.2000122070312</v>
+      </c>
+      <c r="F1037" t="inlineStr"/>
+      <c r="G1037" t="n">
+        <v>1264460</v>
+      </c>
+      <c r="H1037" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1037" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1037" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1037" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1037" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1037" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1037" t="n">
+        <v>17</v>
+      </c>
+      <c r="O1037" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1037" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1037" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1037" t="inlineStr"/>
+    </row>
+    <row r="1038">
+      <c r="A1038" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B1038" t="n">
+        <v>273</v>
+      </c>
+      <c r="C1038" t="n">
+        <v>288.3999938964844</v>
+      </c>
+      <c r="D1038" t="n">
+        <v>266</v>
+      </c>
+      <c r="E1038" t="n">
+        <v>273.25</v>
+      </c>
+      <c r="F1038" t="inlineStr"/>
+      <c r="G1038" t="n">
+        <v>783046</v>
+      </c>
+      <c r="H1038" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1038" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1038" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1038" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1038" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1038" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1038" t="n">
+        <v>18</v>
+      </c>
+      <c r="O1038" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1038" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1038" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1038" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
